--- a/data/income_statement/3digits/total/284_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/284_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>284-Manufacture of metal forming machinery and machine tools</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>284-Manufacture of metal forming machinery and machine tools</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1182319.03299</v>
@@ -959,73 +865,83 @@
         <v>1967813.93497</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2233818.38488</v>
+        <v>2248231.56453</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2612799.76914</v>
+        <v>2613395.27951</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3118291.81351</v>
+        <v>3118889.02333</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3120895.3508</v>
+        <v>3531223.22539</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3889214.99799</v>
+        <v>3894670.326020001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>5319583.54724</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7397980.100430001</v>
+        <v>7401815.420799999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8130100.18781</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8182476.349090001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9819808.961999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>685125.89575</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>884775.0275999999</v>
+        <v>884775.0276</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>1250504.77357</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1443632.74706</v>
+        <v>1457889.5093</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1718141.45931</v>
+        <v>1718736.96968</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2139821.38809</v>
+        <v>2140416.59791</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2166888.23666</v>
+        <v>2358587.20728</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2583670.7882</v>
+        <v>2588766.80722</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>3516950.97028</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4537500.910949999</v>
+        <v>4540809.08899</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4796486.83521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4831092.41833</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6440680.154</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>484797.68506</v>
@@ -1037,34 +953,39 @@
         <v>697328.8528700001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>770304.3556600001</v>
+        <v>770304.35566</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>864805.01145</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>948723.9980500001</v>
+        <v>948723.9980499999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>917871.97269</v>
+        <v>1135998.24046</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1265451.6325</v>
+        <v>1265811.7475</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1748820.54986</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2770941.78264</v>
+        <v>2771394.69754</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3230759.77172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3246665.83891</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3269664.068</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>12395.45218</v>
@@ -1076,34 +997,39 @@
         <v>19980.30853</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>19881.28216</v>
+        <v>20037.69957</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>29853.29838</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>29746.42737</v>
+        <v>29748.42737</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>36135.14145</v>
+        <v>36637.77765</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>40092.57729000001</v>
+        <v>40091.7713</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>53812.02709999999</v>
+        <v>53812.0271</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>89537.40684000001</v>
+        <v>89611.63427</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>102853.58088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>104718.09185</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>109464.74</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>25188.9591</v>
@@ -1115,7 +1041,7 @@
         <v>30456.29807</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>28290.42525</v>
+        <v>28338.13266</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>29350.85715</v>
@@ -1124,25 +1050,30 @@
         <v>38741.57881</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>31528.84544</v>
+        <v>32640.981</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>48411.3567</v>
+        <v>48416.44756</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>81125.8437</v>
+        <v>81125.84369999998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>164251.14387</v>
+        <v>164261.71587</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>104062.66652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>105463.04604</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>180365.351</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>12540.24438</v>
@@ -1154,7 +1085,7 @@
         <v>16465.98574</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>17221.83771</v>
+        <v>17269.54512</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>17932.64955</v>
@@ -1163,46 +1094,51 @@
         <v>23487.35069</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>22809.26055</v>
+        <v>23658.96961</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>41924.15095</v>
+        <v>41929.24181</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>71280.09242999999</v>
+        <v>71280.09243</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>145639.5768</v>
+        <v>145650.1488</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>88504.78083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>89560.02515999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>161141.807</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>11464.11114</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>8944.478529999998</v>
+        <v>8944.47853</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>11745.85945</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>9690.824209999999</v>
+        <v>9690.824210000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>9760.776390000001</v>
+        <v>9760.776389999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>12349.60418</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>5215.966530000001</v>
+        <v>5478.39303</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>4633.649689999999</v>
@@ -1211,16 +1147,21 @@
         <v>6075.33982</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6512.86971</v>
+        <v>6512.869709999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8383.05329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8726.38207</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>13007.124</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1184.60358</v>
@@ -1238,7 +1179,7 @@
         <v>1657.43121</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2904.62394</v>
+        <v>2904.623939999999</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>3503.61836</v>
@@ -1253,13 +1194,18 @@
         <v>12098.69736</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>7174.8324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7176.638809999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6216.42</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1157130.07389</v>
@@ -1271,34 +1217,39 @@
         <v>1937357.6369</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2205527.95963</v>
+        <v>2219893.43187</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2583448.91199</v>
+        <v>2584044.42236</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3079550.2347</v>
+        <v>3080147.44452</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3089366.50536</v>
+        <v>3498582.24439</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3840803.64129</v>
+        <v>3846253.87846</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5238457.70354</v>
+        <v>5238457.703540001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7233728.956560001</v>
+        <v>7237553.704929999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8026037.521289999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8077013.30305</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9639443.611</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>905648.34368</v>
@@ -1310,37 +1261,42 @@
         <v>1504127.86994</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1736575.25059</v>
+        <v>1748610.3016</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2035176.45975</v>
+        <v>2035713.63245</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2434860.26615</v>
+        <v>2435105.78837</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2480725.0686</v>
+        <v>2778279.04269</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2991240.74077</v>
+        <v>2993347.93201</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3961291.13237</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5440193.06941</v>
+        <v>5443385.47943</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6077120.453810001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6108874.70519</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7260627.893</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>758253.71882</v>
+        <v>758253.7188200001</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>887297.97999</v>
@@ -1349,34 +1305,39 @@
         <v>1299369.2391</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1520090.82966</v>
+        <v>1532064.19506</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1752905.6558</v>
+        <v>1753323.8905</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>2041747.09952</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2040718.8529</v>
+        <v>2318746.13634</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2542567.87526</v>
+        <v>2545101.23214</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>3343243.59474</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4547482.36176</v>
+        <v>4548698.74963</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5043185.92417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5069113.605930001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6070514.809</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>121303.95557</v>
@@ -1388,34 +1349,39 @@
         <v>161020.47351</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>164942.25096</v>
+        <v>165003.93657</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>213887.75427</v>
+        <v>214006.69227</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>305941.8429700001</v>
+        <v>306187.36519</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>364744.06595</v>
+        <v>368078.61236</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>364232.91101</v>
+        <v>363806.74537</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>509525.2179</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>779798.7496800001</v>
+        <v>781111.5741699999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>882990.74749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>885001.1550599999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1023654.524</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>20931.91953</v>
@@ -1436,28 +1402,33 @@
         <v>77071.87321999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>67448.11470000001</v>
+        <v>83640.25894</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>76480.08196000001</v>
+        <v>76480.08196</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>86758.96256</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>95597.25603999999</v>
+        <v>96260.4537</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>132187.55224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>132471.38461</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>150291.783</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5158.74976</v>
+        <v>5158.749760000001</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>6318.50831</v>
@@ -1466,10 +1437,10 @@
         <v>8779.630029999998</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>6771.7048</v>
+        <v>6771.704799999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>6074.239880000001</v>
+        <v>6074.23988</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>10099.45044</v>
@@ -1487,52 +1458,62 @@
         <v>17314.70193</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18756.22991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22288.55959</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>16166.777</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>251481.73021</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>279097.2749199999</v>
+        <v>279097.27492</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>433229.76696</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>468952.70904</v>
+        <v>471283.13027</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>548272.45224</v>
+        <v>548330.7899099999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>644689.9685500001</v>
+        <v>645041.6561499999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>608641.43676</v>
+        <v>720303.2017000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>849562.90052</v>
+        <v>852905.9464499999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1277166.57117</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1793535.88715</v>
+        <v>1794168.2255</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1948917.06748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1968138.59786</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2378815.718</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>149855.22633</v>
@@ -1544,46 +1525,51 @@
         <v>213585.92626</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>268162.53914</v>
+        <v>268869.0831099999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>301441.99179</v>
+        <v>301470.47675</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>370861.70397</v>
+        <v>371169.44881</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>360467.70758</v>
+        <v>430829.52154</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>505851.92031</v>
+        <v>507916.72317</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>610883.3466999999</v>
+        <v>610883.3467</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>777420.7575299999</v>
+        <v>779242.1147899999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>967053.1681400001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>977658.6937599999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>919238.4889999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5188.57977</v>
+        <v>5188.579769999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3937.096880000001</v>
+        <v>3937.09688</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>4923.84048</v>
+        <v>4923.840480000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>10849.23504</v>
+        <v>10931.40527</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>13352.77405</v>
@@ -1592,7 +1578,7 @@
         <v>13652.54538</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>10625.84186</v>
+        <v>18041.26971</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>21365.37842</v>
@@ -1601,19 +1587,24 @@
         <v>30876.95172</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>41481.26756</v>
+        <v>41626.72895</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>51295.83732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>54117.45951000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>53933.661</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>48271.69397000001</v>
+        <v>48271.69397</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>55043.93489</v>
@@ -1622,34 +1613,39 @@
         <v>70640.99616</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>91368.85009000001</v>
+        <v>91463.62577000001</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>97870.88836</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>134573.87723</v>
+        <v>134573.88133</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>136037.92692</v>
+        <v>161071.33357</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>195320.27208</v>
+        <v>195947.94381</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>246055.25761</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>316613.90249</v>
+        <v>316718.94432</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>386780.96816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>387096.81412</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>319232.956</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>96394.95259</v>
@@ -1661,34 +1657,39 @@
         <v>138021.08962</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>165944.45401</v>
+        <v>166474.05207</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>190218.32938</v>
+        <v>190246.81434</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>222635.28136</v>
+        <v>222943.0221</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>213803.9388</v>
+        <v>251716.91826</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>289166.26981</v>
+        <v>290603.40094</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>333951.13737</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>419325.58748</v>
+        <v>420896.44152</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>528976.36266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>536444.42013</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>546071.872</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>101626.50388</v>
@@ -1700,34 +1701,39 @@
         <v>219643.8407</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>200790.1699</v>
+        <v>202414.04716</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>246830.46045</v>
+        <v>246860.31316</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>273828.26458</v>
+        <v>273872.20734</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>248173.72918</v>
+        <v>289473.68016</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>343710.9802100001</v>
+        <v>344989.22328</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>666283.22447</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1016115.12962</v>
+        <v>1014926.11071</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>981863.8993399999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>990479.9040999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1459577.229</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>51356.05615999999</v>
@@ -1736,37 +1742,42 @@
         <v>64547.77467</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>77715.34372000002</v>
+        <v>77715.34372</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>70098.41253999999</v>
+        <v>70103.28850999998</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>100139.52677</v>
+        <v>100135.54177</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>119903.67386</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>222767.37925</v>
+        <v>298274.72839</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>205321.92452</v>
+        <v>205642.04812</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>361958.80703</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1174274.16404</v>
+        <v>1174678.13083</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>564645.05585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>570501.13936</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1103267.069</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>792.8849799999999</v>
@@ -1787,7 +1798,7 @@
         <v>551.75172</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4.632</v>
+        <v>118.275</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>116.39754</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1881.99725</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>106.067</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>5647.464019999999</v>
@@ -1865,25 +1886,30 @@
         <v>9532.643310000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8945.241280000002</v>
+        <v>11333.17985</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>9992.64602</v>
+        <v>10171.11519</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>16488.50714</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>29064.75452</v>
+        <v>29243.65759</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>34883.12189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>35104.01755</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>31320.087</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1185.70428</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>66.3968</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>19.012</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1658.44614</v>
@@ -1943,7 +1974,7 @@
         <v>1537.61875</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4727.86435</v>
+        <v>4735.129599999999</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>1819.3859</v>
@@ -1952,16 +1983,21 @@
         <v>2693.18431</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1942.67879</v>
+        <v>1942.71579</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>2622.75818</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6098.743</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>95.75872</v>
@@ -1982,10 +2018,10 @@
         <v>125.05374</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1004.32103</v>
+        <v>1054.89675</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>100.56062</v>
+        <v>100.56063</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>194.27404</v>
@@ -1994,13 +2030,18 @@
         <v>933.7644399999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1182.98173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1267.28506</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7640.107</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>38058.60171</v>
@@ -2012,7 +2053,7 @@
         <v>64551.46427</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>53421.54456999999</v>
+        <v>53426.42054</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>79935.93940999999</v>
@@ -2021,25 +2062,30 @@
         <v>97342.07846999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>197078.66565</v>
+        <v>269148.06962</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>180108.01845</v>
+        <v>180241.6693900001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>321589.9277</v>
+        <v>321589.9277000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1107871.98857</v>
+        <v>1107958.48017</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>486946.84841</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>492515.50798</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1007059.157</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>3.8399</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>12.04458</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>88.85442999999999</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>319.69735</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>70.636</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3824.50198</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>4237.52265</v>
+        <v>4237.522650000001</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>5068.73226</v>
@@ -2132,31 +2188,36 @@
         <v>10020.63607</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8528.23069</v>
+        <v>8524.245690000002</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>8629.347510000001</v>
+        <v>8629.34751</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8593.5597</v>
+        <v>9472.082329999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>12868.09532</v>
+        <v>12876.0988</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>18907.3982</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>27887.22356</v>
+        <v>28025.75868</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>36729.20965999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>36711.43461</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>50953.26</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>47689.1928</v>
@@ -2168,7 +2229,7 @@
         <v>79723.1685</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>52574.21213</v>
+        <v>52598.44228</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>98304.23398</v>
@@ -2177,28 +2238,33 @@
         <v>102401.52349</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>215877.45267</v>
+        <v>253518.12225</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>206965.94054</v>
+        <v>207034.90847</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>329178.5414700001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>946093.5700899999</v>
+        <v>946101.9715600001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>415698.71081</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>424676.9316</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>881544.1360000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5212.72331</v>
+        <v>5212.723309999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>4633.62087</v>
@@ -2207,16 +2273,16 @@
         <v>4641.23176</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5859.152980000001</v>
+        <v>5859.15298</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>10066.27459</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5622.81397</v>
+        <v>5622.813970000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3426.00791</v>
+        <v>8504.323859999999</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>8223.778829999999</v>
@@ -2228,13 +2294,18 @@
         <v>14850.19321</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12635.34132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12632.8602</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>19544.198</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>12396.113</v>
@@ -2249,13 +2320,13 @@
         <v>2760.30218</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5447.18586</v>
+        <v>5447.185860000001</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>4592.375970000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7314.232150000001</v>
+        <v>7840.828640000001</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>15861.59724</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>11083.74104</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>30411.646</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>132.64286</v>
@@ -2294,7 +2370,7 @@
         <v>4108.29599</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>9.30869</v>
+        <v>16.65636</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0.07467</v>
@@ -2303,28 +2379,33 @@
         <v>27.41089</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>597.7452099999999</v>
+        <v>597.7866499999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>36.95384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>108.42673</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>438.112</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>29113.79081</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>37737.70985</v>
+        <v>37737.70984999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>70627.08560000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>41464.72545000001</v>
+        <v>41488.9556</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>80241.42115000001</v>
@@ -2333,25 +2414,30 @@
         <v>85294.50587000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>203001.22844</v>
+        <v>234944.19555</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>178949.639</v>
+        <v>179013.49153</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>304957.5817100001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>916587.9273999999</v>
+        <v>916589.0374299999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>386181.14785</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>395045.29607</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>821134.218</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.73023</v>
@@ -2378,7 +2464,7 @@
         <v>5.62972</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>6.73206</v>
+        <v>6.732060000000001</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>119.81748</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1.23387</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>175.836</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>833.1925900000001</v>
+        <v>833.19259</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>3641.61674</v>
@@ -2450,28 +2546,33 @@
         <v>2780.94521</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1730.5147</v>
+        <v>1815.95706</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3925.22108</v>
+        <v>3930.33648</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2106.89651</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5200.48094</v>
+        <v>5207.73094</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5760.29289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5805.37369</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>9840.126</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>36984.06829000001</v>
+        <v>36984.06829</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>29804.57859</v>
@@ -2480,37 +2581,42 @@
         <v>46298.98993</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>43351.25453</v>
+        <v>43461.24876</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>75054.13317</v>
+        <v>75056.54641</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>48593.46728</v>
+        <v>48593.46878</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>48063.81303</v>
+        <v>110145.82919</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>123180.18062</v>
+        <v>123180.19104</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>186824.75889</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>383052.04555</v>
+        <v>383092.01163</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>219301.6545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>220471.73949</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>327421.415</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>34824.88392999999</v>
+        <v>34824.88393</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>25980.83906</v>
@@ -2519,34 +2625,39 @@
         <v>35346.79408</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>34440.07248999999</v>
+        <v>34550.06672</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>38306.96407</v>
+        <v>38309.37731</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>37563.14277</v>
+        <v>37563.14427</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>43850.60003</v>
+        <v>65792.30886999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>59720.84185</v>
+        <v>59720.85227</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>137203.33851</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>312930.70196</v>
+        <v>312970.66804</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>207019.34675</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>208189.43174</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>291526.822</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2159.18436</v>
@@ -2567,25 +2678,30 @@
         <v>11030.32451</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4213.213</v>
+        <v>44353.52032</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>63459.33876999999</v>
+        <v>63459.33877</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>49621.42038</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>70121.34358999999</v>
+        <v>70121.34359</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>12282.30775</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>35894.593</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>68309.29895</v>
@@ -2597,34 +2713,39 @@
         <v>171337.02599</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>174963.11578</v>
+        <v>176457.64463</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>173611.62007</v>
+        <v>173635.07454</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>242736.94767</v>
+        <v>242780.88893</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>206999.84273</v>
+        <v>224084.45711</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>218886.78357</v>
+        <v>220416.17189</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>512238.73114</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>861243.67802</v>
+        <v>860410.2583500001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>911508.5898799999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>915832.3723699999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1353878.747</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>8725.447819999999</v>
@@ -2636,34 +2757,39 @@
         <v>18081.82829</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>21453.5723</v>
+        <v>21496.48843</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>27362.42577</v>
+        <v>27362.42576999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>27076.30109</v>
+        <v>27125.80126</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>22599.19807</v>
+        <v>28679.23195</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>45888.79278</v>
+        <v>45930.9583</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>52949.57566</v>
+        <v>52949.57565999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>115177.22448</v>
+        <v>115258.20264</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>71053.45169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>74476.24343999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>89252.42600000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>10.65397</v>
@@ -2690,19 +2816,24 @@
         <v>384.91675</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>773.0064100000001</v>
+        <v>773.00641</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>282.92085</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>664.7966300000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3564.93325</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>395.244</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>8714.79385</v>
@@ -2714,34 +2845,39 @@
         <v>17355.09578</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>21396.87933</v>
+        <v>21439.79546</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>27100.17598</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>26643.50959</v>
+        <v>26693.00976</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>22095.57643</v>
+        <v>28175.61031</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>45503.87603</v>
+        <v>45546.04154999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>52176.56925</v>
+        <v>52176.56924999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>114894.30363</v>
+        <v>114975.28179</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>70388.65506</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>70911.31019</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>88857.182</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>15758.19788</v>
@@ -2753,34 +2889,39 @@
         <v>98851.22108</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>16172.43869</v>
+        <v>16254.14406</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>18392.10517</v>
+        <v>18392.14532</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>86570.85006</v>
+        <v>86570.85005999998</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>18773.97793</v>
+        <v>20351.1886</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>108481.06228</v>
+        <v>108495.85479</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>32094.31672</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>164921.89922</v>
+        <v>164932.36413</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>64663.91953</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>65681.35104000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>76058.178</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3392.67536</v>
@@ -2792,13 +2933,13 @@
         <v>3699.727</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4081.34598</v>
+        <v>4081.345980000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>5509.231029999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7366.418959999999</v>
+        <v>7366.418960000001</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>2027.56773</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>1337.97461</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>3447.688</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>358.28349</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>798.16009</v>
+        <v>798.1600900000001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>1203.07887</v>
@@ -2843,22 +2989,27 @@
         <v>1483.77256</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>988.0295500000001</v>
+        <v>988.02955</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>902.7578000000001</v>
+        <v>902.7578000000002</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>3882.19942</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5456.707710000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5517.588210000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2553.045</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>12007.23903</v>
@@ -2867,37 +3018,42 @@
         <v>15654.94473</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>93948.41521000001</v>
+        <v>93948.41520999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>11048.20371</v>
+        <v>11129.90908</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>12233.67159</v>
+        <v>12233.71174</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>78165.2087</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>15262.63764</v>
+        <v>16839.84831</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>93730.91679999999</v>
+        <v>93745.70931000001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>21474.54084</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>160089.52364</v>
+        <v>160099.98855</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>57869.23720999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>58825.78822</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>70057.44500000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>61276.54889</v>
@@ -2909,34 +3065,39 @@
         <v>90567.6332</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>180244.24939</v>
+        <v>181699.989</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>182581.94067</v>
+        <v>182605.35499</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>183242.3987</v>
+        <v>183335.84013</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>210825.06287</v>
+        <v>232412.50046</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>156294.51407</v>
+        <v>157851.2754</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>533093.99008</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>811499.0032799999</v>
+        <v>810736.09686</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>917898.12204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>924627.26477</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1367072.995</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>14793.52696</v>
@@ -2948,34 +3109,39 @@
         <v>30408.76083</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>27383.94911</v>
+        <v>27688.38518</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>32215.88927</v>
+        <v>32217.39216</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>41746.72515000001</v>
+        <v>41758.76927</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35379.42748000001</v>
+        <v>38196.73674</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>40343.61711</v>
+        <v>40741.7805</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>74690.51176000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>143005.43589</v>
+        <v>143024.61379</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>126255.40583</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>127670.72611</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>194981.718</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>46483.02193</v>
@@ -2987,31 +3153,34 @@
         <v>60158.87237</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>152860.30028</v>
+        <v>154011.60382</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>150366.0514</v>
+        <v>150387.96283</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>141495.67355</v>
+        <v>141577.07086</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>175445.63539</v>
+        <v>194215.76372</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>115950.89696</v>
+        <v>117109.4949</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>458403.47832</v>
+        <v>458403.4783200001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>668493.56739</v>
+        <v>667711.48307</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>791642.71621</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>796956.53866</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1172091.277</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>598</v>
@@ -3041,31 +3213,34 @@
         <v>667</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>869</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>859</v>
+        <v>918</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>972</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>